--- a/biology/Zoologie/Chrysopelea_pelias/Chrysopelea_pelias.xlsx
+++ b/biology/Zoologie/Chrysopelea_pelias/Chrysopelea_pelias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysopelea pelias  ou Serpent volant[1] ou Couleuvre volante est une espèce de serpents de la famille des Colubridae[2].
-Il s'appelle en Thaïlande งูดอกหมากแดง (ngu khieow dokmak daeng)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysopelea pelias  ou Serpent volant ou Couleuvre volante est une espèce de serpents de la famille des Colubridae.
+Il s'appelle en Thaïlande งูดอกหมากแดง (ngu khieow dokmak daeng).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce se rencontre :
 en Birmanie ;
@@ -520,7 +534,7 @@
 en Indonésie, dans l'État de Kalimantan et sur les îles de Bangka, Java, Mentawai, Natuna, Nias et Sumatra ;
 en Malaisie péninsulaire et Malaisie orientale, y compris sur les îles de Penang et Tioman ;
 à Singapour ;
-en Thaïlande[2].</t>
+en Thaïlande.</t>
         </is>
       </c>
     </row>
@@ -548,11 +562,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysopelea pelias est un serpent ovipare[2], diurne, arboricole et venimeux mais sa morsure, bien que puissante, n'est pas considérée comme dangereuse pour l'être humain. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysopelea pelias est un serpent ovipare, diurne, arboricole et venimeux mais sa morsure, bien que puissante, n'est pas considérée comme dangereuse pour l'être humain. 
 Il mesure jusqu'à 1,2 m. 
-Comme les autres membres de ce genre, il est capable d'effectuer des vols planés en se lançant d'une branche pour se réceptionner sur une autre branche ou au sol.: il écarte ses côtes pour accroître la surface de son corps et rentre son ventre pour donner naissance à un creux profond concave qui lui sert de parachute ; la résistance à l'air ralentit sa descente et, en variant la position de son corps, il peut se diriger pour retomber plus loin jusqu'à près de 100 mètres de distance[4].
+Comme les autres membres de ce genre, il est capable d'effectuer des vols planés en se lançant d'une branche pour se réceptionner sur une autre branche ou au sol.: il écarte ses côtes pour accroître la surface de son corps et rentre son ventre pour donner naissance à un creux profond concave qui lui sert de parachute ; la résistance à l'air ralentit sa descente et, en variant la position de son corps, il peut se diriger pour retomber plus loin jusqu'à près de 100 mètres de distance.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
